--- a/PLANO DE TESTE (2).xlsx
+++ b/PLANO DE TESTE (2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GabrielCampelo\Documents\Estudos\UXUI\AtividadeUXUI_CaixaBranca_PT1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB840D6E-0580-47B5-9A31-474F4C194B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F06337-251A-4D8A-A95C-F74BD39A8676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
